--- a/src/test/resources/exceldata/UsersAPI.xlsx
+++ b/src/test/resources/exceldata/UsersAPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\star\git\DieticianAPI-Hackathon\src\test\resources\exceldata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDB8431-0288-4A80-BC09-DB8C67EEC865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332AAFCE-63F4-44A9-BEC0-67A90D900A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E023EB60-0E3C-4029-8CA2-D4C7A83D16A1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E023EB60-0E3C-4029-8CA2-D4C7A83D16A1}"/>
   </bookViews>
   <sheets>
     <sheet name="PostUsers" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="62">
   <si>
     <t>first_name</t>
   </si>
@@ -174,34 +174,46 @@
     <t>abec@xyz.com</t>
   </si>
   <si>
-    <t>PT2630</t>
-  </si>
-  <si>
-    <t>PT5248</t>
-  </si>
-  <si>
-    <t>PT6346</t>
-  </si>
-  <si>
-    <t>Kirtii</t>
-  </si>
-  <si>
-    <t>Shaneew</t>
-  </si>
-  <si>
-    <t>Shaunre</t>
-  </si>
-  <si>
-    <t>Duncantt</t>
-  </si>
-  <si>
-    <t>Priyate</t>
-  </si>
-  <si>
-    <t>Kiran</t>
-  </si>
-  <si>
-    <t>abct@xyz.com</t>
+    <t>Kiranjeet</t>
+  </si>
+  <si>
+    <t>abcu@xyz.com</t>
+  </si>
+  <si>
+    <t>Suman</t>
+  </si>
+  <si>
+    <t>Kajhal</t>
+  </si>
+  <si>
+    <t>Rose</t>
+  </si>
+  <si>
+    <t>Ross</t>
+  </si>
+  <si>
+    <t>Yamini</t>
+  </si>
+  <si>
+    <t>PT6186</t>
+  </si>
+  <si>
+    <t>PT2910</t>
+  </si>
+  <si>
+    <t>DT6749</t>
+  </si>
+  <si>
+    <t>PT243</t>
+  </si>
+  <si>
+    <t>PT7060</t>
+  </si>
+  <si>
+    <t>PT2355</t>
+  </si>
+  <si>
+    <t>PT2247</t>
   </si>
 </sst>
 </file>
@@ -570,7 +582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018416D0-CD08-4368-A6CA-F452658D0032}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -626,7 +638,7 @@
     </row>
     <row r="2" spans="1:12" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
@@ -662,7 +674,7 @@
     </row>
     <row r="3" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
@@ -698,7 +710,7 @@
     </row>
     <row r="4" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -734,7 +746,7 @@
     </row>
     <row r="5" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
         <v>35</v>
@@ -770,7 +782,7 @@
     </row>
     <row r="6" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -826,7 +838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D28179-4852-4145-A51B-24A4D125D0CC}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -876,7 +888,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -905,7 +917,9 @@
       <c r="K2" t="s">
         <v>28</v>
       </c>
-      <c r="L2"/>
+      <c r="L2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -915,7 +929,7 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>1234097089</v>
+        <v>1234012089</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
@@ -938,7 +952,9 @@
       <c r="K3" t="s">
         <v>29</v>
       </c>
-      <c r="L3"/>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -951,7 +967,7 @@
         <v>1234567789</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>

--- a/src/test/resources/exceldata/UsersAPI.xlsx
+++ b/src/test/resources/exceldata/UsersAPI.xlsx
@@ -917,9 +917,7 @@
       <c r="K2" t="s">
         <v>28</v>
       </c>
-      <c r="L2" t="s">
-        <v>60</v>
-      </c>
+      <c r="L2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -952,9 +950,7 @@
       <c r="K3" t="s">
         <v>29</v>
       </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
+      <c r="L3"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
